--- a/raw_data/2018microdata_codebook.xlsx
+++ b/raw_data/2018microdata_codebook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evankuo/Desktop/Databases/EN.601.315-Databases-Final-Project/sql/raw_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danieldrozdov/Developer/EN.601.315-Databases/EN.601.315-Databases-Final-Project/raw_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73309BBB-CA77-B244-A258-E7A310EC9F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59996322-FE8B-4D43-9E30-5D3EAED3C5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18660" yWindow="-28300" windowWidth="25580" windowHeight="28280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 CBECS microdata codebook" sheetId="1" r:id="rId1"/>
@@ -7062,57 +7062,6 @@
   </si>
   <si>
     <t>Imputation flag: Percent of outpatient space in hospital</t>
-  </si>
-  <si>
-    <t>1=Vacant
-2=Administrative/professional office
-3=Bank/other financial
-4=Government office
-5=Medical office (non-diagnostic)
-6=Mixed-use office
-7=Other office
-8=Laboratory
-9=Distribution/shipping center
-10=Non-refrigerated warehouse
-11=Public rental storage units
-12=Convenience store (w/ or w/out gas station)
-14=Grocery store/food market
-15=Other food sales
-16=Fire station/police station
-17=Other public order and safety
-18=Medical office (diagnostic)
-19=Clinic/other outpatient health
-20=Refrigerated warehouse
-21=Religious worship
-22=Entertainment/culture
-23=Library
-24=Recreation
-25=Social/meeting
-26=Other public assembly 
-27=College/university 
-28=Elementary school 
-29=High school 30=Preschool/daycare 
-31=Other classroom education 
-32=Fast food 33=Restaurant/cafeteria 
-34=Other food service 
-35=Hospital/inpatient health 
-36=Nursing home/assisted living 
-37=Dormitory/fraternity/sorority 
-38=Hotel/resort 
-39=Motel/inn/bed and breakfast 
-40=Other lodging 
-42=Retail store 
-43=Other retail 
-44=Post office/postal center 
-46=Vehicle service/repair shop 
-47=Vehicle storage/maintenance 
-48=Other service
-49=Other 
-50=Strip shopping mall 
-51=Enclosed mall 
-52=Courthouse/probation office 
-54=Middle/junior high school 
-55=Multi-grade school (any K-12)</t>
   </si>
   <si>
     <t>1=Vacant
@@ -9873,6 +9822,59 @@
   <si>
     <t>Variable
 order</t>
+  </si>
+  <si>
+    <t>1=Vacant
+2=Administrative/professional office
+3=Bank/other financial
+4=Government office
+5=Medical office (non-diagnostic)
+6=Mixed-use office
+7=Other office
+8=Laboratory
+9=Distribution/shipping center
+10=Non-refrigerated warehouse
+11=Public rental storage units
+12=Convenience store (w/ or w/out gas station)
+14=Grocery store/food market
+15=Other food sales
+16=Fire station/police station
+17=Other public order and safety
+18=Medical office (diagnostic)
+19=Clinic/other outpatient health
+20=Refrigerated warehouse
+21=Religious worship
+22=Entertainment/culture
+23=Library
+24=Recreation
+25=Social/meeting
+26=Other public assembly 
+27=College/university 
+28=Elementary school 
+29=High school 
+30=Preschool/daycare 
+31=Other classroom education 
+32=Fast food 
+33=Restaurant/cafeteria 
+34=Other food service 
+35=Hospital/inpatient health 
+36=Nursing home/assisted living 
+37=Dormitory/fraternity/sorority 
+38=Hotel/resort 
+39=Motel/inn/bed and breakfast 
+40=Other lodging 
+42=Retail store 
+43=Other retail 
+44=Post office/postal center 
+46=Vehicle service/repair shop 
+47=Vehicle storage/maintenance 
+48=Other service
+49=Other 
+50=Strip shopping mall 
+51=Enclosed mall 
+52=Courthouse/probation office 
+54=Middle/junior high school 
+55=Multi-grade school (any K-12)</t>
   </si>
 </sst>
 </file>
@@ -10364,8 +10366,8 @@
   <dimension ref="A1:F1252"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B246" activeCellId="1" sqref="B247:B251 B246"/>
+      <pane ySplit="2" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10381,7 +10383,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="20" t="s">
-        <v>3099</v>
+        <v>3098</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -10391,7 +10393,7 @@
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1" ht="33" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>3101</v>
+        <v>3100</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>2209</v>
@@ -10406,7 +10408,7 @@
         <v>2212</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -10423,7 +10425,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -10438,7 +10440,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>2214</v>
@@ -10477,7 +10479,7 @@
         <v>75</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -10486,16 +10488,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>2932</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>2929</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>2844</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>2933</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>2930</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -10513,10 +10515,10 @@
         <v>7</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -10536,7 +10538,7 @@
         <v>2215</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -10556,7 +10558,7 @@
         <v>2216</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>2297</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -10576,7 +10578,7 @@
         <v>2217</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>2298</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10590,7 +10592,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>2218</v>
@@ -10614,7 +10616,7 @@
         <v>2219</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>2299</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="177.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10634,7 +10636,7 @@
         <v>2220</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -10654,7 +10656,7 @@
         <v>2221</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>2300</v>
+        <v>2299</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -10671,10 +10673,10 @@
         <v>23</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>3100</v>
+        <v>3099</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>2301</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10691,10 +10693,10 @@
         <v>25</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10711,10 +10713,10 @@
         <v>27</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -10734,7 +10736,7 @@
         <v>2218</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10754,7 +10756,7 @@
         <v>2222</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10771,10 +10773,10 @@
         <v>33</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>2306</v>
+        <v>2305</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10794,7 +10796,7 @@
         <v>2222</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10811,10 +10813,10 @@
         <v>37</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>2308</v>
+        <v>2307</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -10831,10 +10833,10 @@
         <v>39</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>2309</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10854,7 +10856,7 @@
         <v>2222</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>2371</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10874,7 +10876,7 @@
         <v>2222</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10894,7 +10896,7 @@
         <v>2222</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10914,7 +10916,7 @@
         <v>2222</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10934,7 +10936,7 @@
         <v>2222</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10954,7 +10956,7 @@
         <v>2222</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10974,7 +10976,7 @@
         <v>2222</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>2492</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -10994,7 +10996,7 @@
         <v>2222</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>3082</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11014,7 +11016,7 @@
         <v>2222</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>2493</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11034,7 +11036,7 @@
         <v>2222</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>2494</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11054,7 +11056,7 @@
         <v>2222</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11074,7 +11076,7 @@
         <v>2222</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11094,7 +11096,7 @@
         <v>2222</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11114,7 +11116,7 @@
         <v>2222</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11134,7 +11136,7 @@
         <v>2222</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11154,7 +11156,7 @@
         <v>2223</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>2310</v>
+        <v>2309</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11174,10 +11176,10 @@
         <v>2222</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>2311</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="16">
         <v>40</v>
       </c>
@@ -11188,10 +11190,10 @@
         <v>8</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>2378</v>
+        <v>2377</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>2266</v>
+        <v>3101</v>
       </c>
       <c r="F42" s="11"/>
     </row>
@@ -11209,10 +11211,10 @@
         <v>78</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>2312</v>
+        <v>2311</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11229,10 +11231,10 @@
         <v>80</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11249,10 +11251,10 @@
         <v>82</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11269,10 +11271,10 @@
         <v>84</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -11292,7 +11294,7 @@
         <v>2260</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11309,10 +11311,10 @@
         <v>88</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>2317</v>
+        <v>2316</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11329,10 +11331,10 @@
         <v>90</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>2318</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11349,10 +11351,10 @@
         <v>92</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>2319</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11372,7 +11374,7 @@
         <v>2222</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>2320</v>
+        <v>2319</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11392,7 +11394,7 @@
         <v>2218</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11412,7 +11414,7 @@
         <v>2222</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>2322</v>
+        <v>2321</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="272" x14ac:dyDescent="0.2">
@@ -11432,7 +11434,7 @@
         <v>2224</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>2323</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11452,7 +11454,7 @@
         <v>2222</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>2324</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11472,7 +11474,7 @@
         <v>2222</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11492,7 +11494,7 @@
         <v>2222</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11512,7 +11514,7 @@
         <v>2222</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11532,7 +11534,7 @@
         <v>2222</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11552,7 +11554,7 @@
         <v>2222</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11572,7 +11574,7 @@
         <v>2225</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11592,7 +11594,7 @@
         <v>2218</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -11612,7 +11614,7 @@
         <v>2226</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="208" x14ac:dyDescent="0.2">
@@ -11626,7 +11628,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>2379</v>
+        <v>2378</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>2227</v>
@@ -11647,10 +11649,10 @@
         <v>121</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="144" x14ac:dyDescent="0.2">
@@ -11667,10 +11669,10 @@
         <v>123</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11684,7 +11686,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>2380</v>
+        <v>2379</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>2222</v>
@@ -11708,7 +11710,7 @@
         <v>2218</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>2331</v>
+        <v>2330</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11728,7 +11730,7 @@
         <v>2222</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>2330</v>
+        <v>2329</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -11748,7 +11750,7 @@
         <v>2228</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -11768,7 +11770,7 @@
         <v>2228</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>2332</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -11788,7 +11790,7 @@
         <v>2229</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>2333</v>
+        <v>2332</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -11805,10 +11807,10 @@
         <v>136</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11825,10 +11827,10 @@
         <v>138</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11845,10 +11847,10 @@
         <v>140</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>2374</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11868,7 +11870,7 @@
         <v>2218</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>2500</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -11888,7 +11890,7 @@
         <v>2230</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>2375</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11908,7 +11910,7 @@
         <v>2218</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>2501</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -11925,10 +11927,10 @@
         <v>148</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -11948,7 +11950,7 @@
         <v>2231</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -11965,10 +11967,10 @@
         <v>152</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>2504</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="192" x14ac:dyDescent="0.2">
@@ -11988,7 +11990,7 @@
         <v>2232</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12008,7 +12010,7 @@
         <v>2218</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>2506</v>
+        <v>2505</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12028,7 +12030,7 @@
         <v>2218</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12048,7 +12050,7 @@
         <v>2218</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>2334</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12068,7 +12070,7 @@
         <v>2218</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>2335</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12088,7 +12090,7 @@
         <v>2218</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12108,7 +12110,7 @@
         <v>2218</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>2336</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12122,7 +12124,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>2381</v>
+        <v>2380</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>2218</v>
@@ -12146,7 +12148,7 @@
         <v>2218</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12166,7 +12168,7 @@
         <v>2218</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12186,7 +12188,7 @@
         <v>2218</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12206,7 +12208,7 @@
         <v>2218</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12226,7 +12228,7 @@
         <v>2218</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12246,7 +12248,7 @@
         <v>2218</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12266,7 +12268,7 @@
         <v>2218</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12286,7 +12288,7 @@
         <v>2218</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12306,7 +12308,7 @@
         <v>2218</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>2516</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12326,7 +12328,7 @@
         <v>2218</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12346,7 +12348,7 @@
         <v>2218</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>2518</v>
+        <v>2517</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -12366,7 +12368,7 @@
         <v>2233</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>2519</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12386,7 +12388,7 @@
         <v>2222</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>2520</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12406,7 +12408,7 @@
         <v>2222</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -12423,10 +12425,10 @@
         <v>197</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12446,7 +12448,7 @@
         <v>2222</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12466,7 +12468,7 @@
         <v>2218</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12486,7 +12488,7 @@
         <v>2218</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12506,7 +12508,7 @@
         <v>2218</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>2529</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12526,7 +12528,7 @@
         <v>2218</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12546,7 +12548,7 @@
         <v>2218</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12566,7 +12568,7 @@
         <v>2218</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12586,7 +12588,7 @@
         <v>2218</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12606,7 +12608,7 @@
         <v>2218</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>2527</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12626,7 +12628,7 @@
         <v>2218</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>2528</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12646,7 +12648,7 @@
         <v>2218</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12666,7 +12668,7 @@
         <v>2218</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12686,7 +12688,7 @@
         <v>2218</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12706,7 +12708,7 @@
         <v>2218</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12726,7 +12728,7 @@
         <v>2218</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12746,7 +12748,7 @@
         <v>2218</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12766,7 +12768,7 @@
         <v>2218</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12786,7 +12788,7 @@
         <v>2218</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12806,7 +12808,7 @@
         <v>2218</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12826,7 +12828,7 @@
         <v>2218</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -12846,7 +12848,7 @@
         <v>2218</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>2540</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -12860,7 +12862,7 @@
         <v>8</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>2382</v>
+        <v>2381</v>
       </c>
       <c r="E126" s="8" t="s">
         <v>2222</v>
@@ -12878,7 +12880,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>2383</v>
+        <v>2382</v>
       </c>
       <c r="E127" s="8" t="s">
         <v>2222</v>
@@ -12896,7 +12898,7 @@
         <v>8</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>2384</v>
+        <v>2383</v>
       </c>
       <c r="E128" s="8" t="s">
         <v>2222</v>
@@ -12914,7 +12916,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>2385</v>
+        <v>2384</v>
       </c>
       <c r="E129" s="8" t="s">
         <v>2222</v>
@@ -12932,7 +12934,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="E130" s="8" t="s">
         <v>2222</v>
@@ -12950,7 +12952,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="E131" s="8" t="s">
         <v>2222</v>
@@ -12968,7 +12970,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="E132" s="8" t="s">
         <v>2222</v>
@@ -12986,7 +12988,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="E133" s="8" t="s">
         <v>2222</v>
@@ -13004,7 +13006,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="E134" s="8" t="s">
         <v>2222</v>
@@ -13028,7 +13030,7 @@
         <v>2222</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13048,7 +13050,7 @@
         <v>2222</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13068,7 +13070,7 @@
         <v>2222</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13088,7 +13090,7 @@
         <v>2222</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="128" x14ac:dyDescent="0.2">
@@ -13108,7 +13110,7 @@
         <v>2222</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13128,7 +13130,7 @@
         <v>2222</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13148,7 +13150,7 @@
         <v>2222</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13168,7 +13170,7 @@
         <v>2222</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -13188,7 +13190,7 @@
         <v>2222</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13208,7 +13210,7 @@
         <v>2222</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>2550</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13228,7 +13230,7 @@
         <v>2222</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>2551</v>
+        <v>2550</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13248,7 +13250,7 @@
         <v>2222</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -13268,7 +13270,7 @@
         <v>2222</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13288,7 +13290,7 @@
         <v>2222</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13302,13 +13304,13 @@
         <v>8</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="E149" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13328,7 +13330,7 @@
         <v>2222</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13348,7 +13350,7 @@
         <v>2222</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -13368,7 +13370,7 @@
         <v>2222</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13382,13 +13384,13 @@
         <v>8</v>
       </c>
       <c r="D153" s="8" t="s">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="E153" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -13408,7 +13410,7 @@
         <v>2222</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13428,7 +13430,7 @@
         <v>2222</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13448,7 +13450,7 @@
         <v>2222</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13468,7 +13470,7 @@
         <v>2222</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>2558</v>
+        <v>2557</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -13488,7 +13490,7 @@
         <v>2222</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>2559</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13508,7 +13510,7 @@
         <v>2222</v>
       </c>
       <c r="F159" s="10" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13522,13 +13524,13 @@
         <v>8</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>2291</v>
+        <v>2290</v>
       </c>
       <c r="E160" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F160" s="10" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13542,7 +13544,7 @@
         <v>8</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="E161" s="8" t="s">
         <v>2222</v>
@@ -13566,7 +13568,7 @@
         <v>2222</v>
       </c>
       <c r="F162" s="10" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -13586,7 +13588,7 @@
         <v>2222</v>
       </c>
       <c r="F163" s="10" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13606,7 +13608,7 @@
         <v>2222</v>
       </c>
       <c r="F164" s="10" t="s">
-        <v>2591</v>
+        <v>2590</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13626,7 +13628,7 @@
         <v>2222</v>
       </c>
       <c r="F165" s="10" t="s">
-        <v>2592</v>
+        <v>2591</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13640,13 +13642,13 @@
         <v>8</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="E166" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F166" s="10" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13666,7 +13668,7 @@
         <v>2222</v>
       </c>
       <c r="F167" s="10" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13686,7 +13688,7 @@
         <v>2222</v>
       </c>
       <c r="F168" s="10" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13700,7 +13702,7 @@
         <v>8</v>
       </c>
       <c r="D169" s="8" t="s">
-        <v>2476</v>
+        <v>2475</v>
       </c>
       <c r="E169" s="8" t="s">
         <v>2222</v>
@@ -13724,7 +13726,7 @@
         <v>2222</v>
       </c>
       <c r="F170" s="10" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -13744,7 +13746,7 @@
         <v>2222</v>
       </c>
       <c r="F171" s="10" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13764,7 +13766,7 @@
         <v>2222</v>
       </c>
       <c r="F172" s="10" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -13784,7 +13786,7 @@
         <v>2222</v>
       </c>
       <c r="F173" s="10" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13798,13 +13800,13 @@
         <v>8</v>
       </c>
       <c r="D174" s="8" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E174" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F174" s="10" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13824,7 +13826,7 @@
         <v>2222</v>
       </c>
       <c r="F175" s="10" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13844,7 +13846,7 @@
         <v>2222</v>
       </c>
       <c r="F176" s="10" t="s">
-        <v>2602</v>
+        <v>2601</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13864,7 +13866,7 @@
         <v>2222</v>
       </c>
       <c r="F177" s="10" t="s">
-        <v>2604</v>
+        <v>2603</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -13884,7 +13886,7 @@
         <v>2222</v>
       </c>
       <c r="F178" s="10" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13904,7 +13906,7 @@
         <v>2222</v>
       </c>
       <c r="F179" s="10" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13918,13 +13920,13 @@
         <v>8</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="E180" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13944,7 +13946,7 @@
         <v>2222</v>
       </c>
       <c r="F181" s="10" t="s">
-        <v>2607</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13964,7 +13966,7 @@
         <v>2222</v>
       </c>
       <c r="F182" s="10" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13978,13 +13980,13 @@
         <v>8</v>
       </c>
       <c r="D183" s="8" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="E183" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F183" s="10" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -13998,7 +14000,7 @@
         <v>8</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>2392</v>
+        <v>2391</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>2222</v>
@@ -14022,7 +14024,7 @@
         <v>2222</v>
       </c>
       <c r="F185" s="10" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14042,7 +14044,7 @@
         <v>2222</v>
       </c>
       <c r="F186" s="10" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14062,7 +14064,7 @@
         <v>2222</v>
       </c>
       <c r="F187" s="10" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -14082,7 +14084,7 @@
         <v>2222</v>
       </c>
       <c r="F188" s="10" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14096,13 +14098,13 @@
         <v>8</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F189" s="10" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14122,7 +14124,7 @@
         <v>2222</v>
       </c>
       <c r="F190" s="10" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -14142,7 +14144,7 @@
         <v>2222</v>
       </c>
       <c r="F191" s="10" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14162,7 +14164,7 @@
         <v>2222</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14182,7 +14184,7 @@
         <v>2222</v>
       </c>
       <c r="F193" s="18" t="s">
-        <v>3083</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14196,13 +14198,13 @@
         <v>8</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F194" s="10" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14222,7 +14224,7 @@
         <v>2222</v>
       </c>
       <c r="F195" s="10" t="s">
-        <v>2618</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14242,7 +14244,7 @@
         <v>2222</v>
       </c>
       <c r="F196" s="10" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14262,7 +14264,7 @@
         <v>2222</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -14282,7 +14284,7 @@
         <v>2222</v>
       </c>
       <c r="F198" s="18" t="s">
-        <v>3084</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14302,7 +14304,7 @@
         <v>2222</v>
       </c>
       <c r="F199" s="10" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -14322,7 +14324,7 @@
         <v>2222</v>
       </c>
       <c r="F200" s="10" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14336,13 +14338,13 @@
         <v>8</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F201" s="10" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14362,7 +14364,7 @@
         <v>2222</v>
       </c>
       <c r="F202" s="10" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14382,7 +14384,7 @@
         <v>2222</v>
       </c>
       <c r="F203" s="10" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14402,7 +14404,7 @@
         <v>2222</v>
       </c>
       <c r="F204" s="10" t="s">
-        <v>2625</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -14422,7 +14424,7 @@
         <v>2222</v>
       </c>
       <c r="F205" s="10" t="s">
-        <v>2626</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14442,7 +14444,7 @@
         <v>2222</v>
       </c>
       <c r="F206" s="10" t="s">
-        <v>2627</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -14462,7 +14464,7 @@
         <v>2222</v>
       </c>
       <c r="F207" s="10" t="s">
-        <v>2628</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14476,13 +14478,13 @@
         <v>8</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F208" s="10" t="s">
-        <v>2629</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14502,7 +14504,7 @@
         <v>2222</v>
       </c>
       <c r="F209" s="10" t="s">
-        <v>2630</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14522,7 +14524,7 @@
         <v>2222</v>
       </c>
       <c r="F210" s="10" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14542,7 +14544,7 @@
         <v>2222</v>
       </c>
       <c r="F211" s="10" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -14562,7 +14564,7 @@
         <v>2222</v>
       </c>
       <c r="F212" s="10" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14582,7 +14584,7 @@
         <v>2222</v>
       </c>
       <c r="F213" s="10" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -14602,7 +14604,7 @@
         <v>2222</v>
       </c>
       <c r="F214" s="10" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14616,13 +14618,13 @@
         <v>8</v>
       </c>
       <c r="D215" s="8" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="E215" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F215" s="10" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14642,7 +14644,7 @@
         <v>2222</v>
       </c>
       <c r="F216" s="10" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14662,7 +14664,7 @@
         <v>2222</v>
       </c>
       <c r="F217" s="10" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14682,7 +14684,7 @@
         <v>2222</v>
       </c>
       <c r="F218" s="10" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -14702,7 +14704,7 @@
         <v>2222</v>
       </c>
       <c r="F219" s="10" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14722,7 +14724,7 @@
         <v>2222</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -14742,7 +14744,7 @@
         <v>2222</v>
       </c>
       <c r="F221" s="10" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14756,13 +14758,13 @@
         <v>8</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="E222" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F222" s="10" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14782,7 +14784,7 @@
         <v>2222</v>
       </c>
       <c r="F223" s="10" t="s">
-        <v>2636</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14802,7 +14804,7 @@
         <v>2222</v>
       </c>
       <c r="F224" s="10" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14822,7 +14824,7 @@
         <v>2222</v>
       </c>
       <c r="F225" s="10" t="s">
-        <v>2637</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -14842,7 +14844,7 @@
         <v>2222</v>
       </c>
       <c r="F226" s="10" t="s">
-        <v>2638</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14862,7 +14864,7 @@
         <v>2222</v>
       </c>
       <c r="F227" s="10" t="s">
-        <v>2639</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -14882,7 +14884,7 @@
         <v>2222</v>
       </c>
       <c r="F228" s="10" t="s">
-        <v>2640</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14896,13 +14898,13 @@
         <v>8</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="E229" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F229" s="10" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14922,7 +14924,7 @@
         <v>2222</v>
       </c>
       <c r="F230" s="10" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14942,7 +14944,7 @@
         <v>2222</v>
       </c>
       <c r="F231" s="10" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -14962,7 +14964,7 @@
         <v>2222</v>
       </c>
       <c r="F232" s="10" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -14982,7 +14984,7 @@
         <v>2222</v>
       </c>
       <c r="F233" s="10" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15002,7 +15004,7 @@
         <v>2222</v>
       </c>
       <c r="F234" s="10" t="s">
-        <v>2645</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15022,7 +15024,7 @@
         <v>2222</v>
       </c>
       <c r="F235" s="10" t="s">
-        <v>2646</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15036,13 +15038,13 @@
         <v>8</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="E236" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F236" s="10" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15062,7 +15064,7 @@
         <v>2222</v>
       </c>
       <c r="F237" s="10" t="s">
-        <v>2648</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15082,7 +15084,7 @@
         <v>2222</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15096,7 +15098,7 @@
         <v>8</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>2222</v>
@@ -15114,7 +15116,7 @@
         <v>8</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>2394</v>
+        <v>2393</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>2222</v>
@@ -15132,7 +15134,7 @@
         <v>8</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>2395</v>
+        <v>2394</v>
       </c>
       <c r="E241" s="8" t="s">
         <v>2222</v>
@@ -15150,7 +15152,7 @@
         <v>8</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>2222</v>
@@ -15168,7 +15170,7 @@
         <v>8</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>2222</v>
@@ -15186,7 +15188,7 @@
         <v>8</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>2222</v>
@@ -15204,7 +15206,7 @@
         <v>8</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="E245" s="8" t="s">
         <v>2222</v>
@@ -15228,7 +15230,7 @@
         <v>2260</v>
       </c>
       <c r="F246" s="10" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -15248,7 +15250,7 @@
         <v>2234</v>
       </c>
       <c r="F247" s="10" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15268,7 +15270,7 @@
         <v>2222</v>
       </c>
       <c r="F248" s="10" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15288,7 +15290,7 @@
         <v>2222</v>
       </c>
       <c r="F249" s="10" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15308,7 +15310,7 @@
         <v>2222</v>
       </c>
       <c r="F250" s="10" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15328,7 +15330,7 @@
         <v>2222</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -15348,7 +15350,7 @@
         <v>2222</v>
       </c>
       <c r="F252" s="10" t="s">
-        <v>2339</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -15365,10 +15367,10 @@
         <v>461</v>
       </c>
       <c r="E253" s="8" t="s">
-        <v>2285</v>
+        <v>2284</v>
       </c>
       <c r="F253" s="10" t="s">
-        <v>2564</v>
+        <v>2563</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -15382,10 +15384,10 @@
         <v>8</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="E254" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F254" s="11"/>
     </row>
@@ -15400,10 +15402,10 @@
         <v>8</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>2401</v>
+        <v>2400</v>
       </c>
       <c r="E255" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F255" s="11"/>
     </row>
@@ -15418,10 +15420,10 @@
         <v>8</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>2402</v>
+        <v>2401</v>
       </c>
       <c r="E256" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F256" s="11"/>
     </row>
@@ -15436,10 +15438,10 @@
         <v>8</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>2403</v>
+        <v>2402</v>
       </c>
       <c r="E257" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F257" s="11"/>
     </row>
@@ -15454,10 +15456,10 @@
         <v>8</v>
       </c>
       <c r="D258" s="8" t="s">
-        <v>2404</v>
+        <v>2403</v>
       </c>
       <c r="E258" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F258" s="11"/>
     </row>
@@ -15472,10 +15474,10 @@
         <v>8</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>2405</v>
+        <v>2404</v>
       </c>
       <c r="E259" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F259" s="11"/>
     </row>
@@ -15490,10 +15492,10 @@
         <v>8</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>2406</v>
+        <v>2405</v>
       </c>
       <c r="E260" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F260" s="11"/>
     </row>
@@ -15508,10 +15510,10 @@
         <v>8</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F261" s="11"/>
     </row>
@@ -15526,10 +15528,10 @@
         <v>8</v>
       </c>
       <c r="D262" s="8" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="E262" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F262" s="11"/>
     </row>
@@ -15544,10 +15546,10 @@
         <v>8</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>2409</v>
+        <v>2408</v>
       </c>
       <c r="E263" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F263" s="11"/>
     </row>
@@ -15562,10 +15564,10 @@
         <v>8</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>2410</v>
+        <v>2409</v>
       </c>
       <c r="E264" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F264" s="11"/>
     </row>
@@ -15580,10 +15582,10 @@
         <v>8</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="E265" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F265" s="11"/>
     </row>
@@ -15598,10 +15600,10 @@
         <v>8</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="E266" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F266" s="11"/>
     </row>
@@ -15616,10 +15618,10 @@
         <v>8</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>2413</v>
+        <v>2412</v>
       </c>
       <c r="E267" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F267" s="11"/>
     </row>
@@ -15634,10 +15636,10 @@
         <v>8</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>2414</v>
+        <v>2413</v>
       </c>
       <c r="E268" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F268" s="11"/>
     </row>
@@ -15652,10 +15654,10 @@
         <v>8</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>2415</v>
+        <v>2414</v>
       </c>
       <c r="E269" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F269" s="11"/>
     </row>
@@ -15670,10 +15672,10 @@
         <v>8</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>2416</v>
+        <v>2415</v>
       </c>
       <c r="E270" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F270" s="11"/>
     </row>
@@ -15688,10 +15690,10 @@
         <v>8</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>2417</v>
+        <v>2416</v>
       </c>
       <c r="E271" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F271" s="11"/>
     </row>
@@ -15706,10 +15708,10 @@
         <v>8</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>2418</v>
+        <v>2417</v>
       </c>
       <c r="E272" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F272" s="11"/>
     </row>
@@ -15724,10 +15726,10 @@
         <v>8</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="E273" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F273" s="11"/>
     </row>
@@ -15742,10 +15744,10 @@
         <v>8</v>
       </c>
       <c r="D274" s="8" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="E274" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F274" s="11"/>
     </row>
@@ -15760,10 +15762,10 @@
         <v>8</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="E275" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F275" s="11"/>
     </row>
@@ -15778,10 +15780,10 @@
         <v>8</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="E276" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F276" s="11"/>
     </row>
@@ -15796,10 +15798,10 @@
         <v>8</v>
       </c>
       <c r="D277" s="8" t="s">
-        <v>2423</v>
+        <v>2422</v>
       </c>
       <c r="E277" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F277" s="11"/>
     </row>
@@ -15814,10 +15816,10 @@
         <v>8</v>
       </c>
       <c r="D278" s="8" t="s">
-        <v>2424</v>
+        <v>2423</v>
       </c>
       <c r="E278" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F278" s="11"/>
     </row>
@@ -15832,10 +15834,10 @@
         <v>8</v>
       </c>
       <c r="D279" s="8" t="s">
-        <v>2425</v>
+        <v>2424</v>
       </c>
       <c r="E279" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F279" s="11"/>
     </row>
@@ -15850,10 +15852,10 @@
         <v>8</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="E280" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F280" s="11"/>
     </row>
@@ -15868,10 +15870,10 @@
         <v>8</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>2427</v>
+        <v>2426</v>
       </c>
       <c r="E281" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F281" s="11"/>
     </row>
@@ -15886,10 +15888,10 @@
         <v>8</v>
       </c>
       <c r="D282" s="8" t="s">
-        <v>2428</v>
+        <v>2427</v>
       </c>
       <c r="E282" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F282" s="11"/>
     </row>
@@ -15904,10 +15906,10 @@
         <v>8</v>
       </c>
       <c r="D283" s="8" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="E283" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F283" s="11"/>
     </row>
@@ -15922,10 +15924,10 @@
         <v>8</v>
       </c>
       <c r="D284" s="8" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E284" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F284" s="11"/>
     </row>
@@ -15940,10 +15942,10 @@
         <v>8</v>
       </c>
       <c r="D285" s="8" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="E285" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F285" s="11"/>
     </row>
@@ -15958,10 +15960,10 @@
         <v>8</v>
       </c>
       <c r="D286" s="8" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="E286" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F286" s="11"/>
     </row>
@@ -15976,10 +15978,10 @@
         <v>8</v>
       </c>
       <c r="D287" s="8" t="s">
-        <v>2433</v>
+        <v>2432</v>
       </c>
       <c r="E287" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F287" s="11"/>
     </row>
@@ -15994,10 +15996,10 @@
         <v>8</v>
       </c>
       <c r="D288" s="8" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="E288" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F288" s="11"/>
     </row>
@@ -16012,10 +16014,10 @@
         <v>8</v>
       </c>
       <c r="D289" s="8" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="E289" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F289" s="11"/>
     </row>
@@ -16030,10 +16032,10 @@
         <v>8</v>
       </c>
       <c r="D290" s="8" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="E290" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F290" s="11"/>
     </row>
@@ -16048,10 +16050,10 @@
         <v>8</v>
       </c>
       <c r="D291" s="8" t="s">
-        <v>2437</v>
+        <v>2436</v>
       </c>
       <c r="E291" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F291" s="11"/>
     </row>
@@ -16066,10 +16068,10 @@
         <v>8</v>
       </c>
       <c r="D292" s="8" t="s">
-        <v>2438</v>
+        <v>2437</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F292" s="11"/>
     </row>
@@ -16084,10 +16086,10 @@
         <v>8</v>
       </c>
       <c r="D293" s="8" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="E293" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F293" s="11"/>
     </row>
@@ -16102,10 +16104,10 @@
         <v>8</v>
       </c>
       <c r="D294" s="8" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="E294" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F294" s="11"/>
     </row>
@@ -16120,10 +16122,10 @@
         <v>8</v>
       </c>
       <c r="D295" s="8" t="s">
-        <v>2441</v>
+        <v>2440</v>
       </c>
       <c r="E295" s="8" t="s">
-        <v>2286</v>
+        <v>2285</v>
       </c>
       <c r="F295" s="11"/>
     </row>
@@ -16144,7 +16146,7 @@
         <v>2222</v>
       </c>
       <c r="F296" s="10" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16161,10 +16163,10 @@
         <v>507</v>
       </c>
       <c r="E297" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F297" s="10" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16184,7 +16186,7 @@
         <v>2218</v>
       </c>
       <c r="F298" s="10" t="s">
-        <v>2477</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16198,13 +16200,13 @@
         <v>8</v>
       </c>
       <c r="D299" s="8" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="E299" s="8" t="s">
         <v>2218</v>
       </c>
       <c r="F299" s="10" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16224,7 +16226,7 @@
         <v>2218</v>
       </c>
       <c r="F300" s="10" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16244,7 +16246,7 @@
         <v>2218</v>
       </c>
       <c r="F301" s="10" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16264,7 +16266,7 @@
         <v>2218</v>
       </c>
       <c r="F302" s="10" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16284,7 +16286,7 @@
         <v>2218</v>
       </c>
       <c r="F303" s="10" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -16304,7 +16306,7 @@
         <v>2218</v>
       </c>
       <c r="F304" s="10" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16318,7 +16320,7 @@
         <v>8</v>
       </c>
       <c r="D305" s="8" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="E305" s="8" t="s">
         <v>2222</v>
@@ -16336,7 +16338,7 @@
         <v>8</v>
       </c>
       <c r="D306" s="8" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="E306" s="8" t="s">
         <v>2222</v>
@@ -16354,7 +16356,7 @@
         <v>8</v>
       </c>
       <c r="D307" s="8" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="E307" s="8" t="s">
         <v>2222</v>
@@ -16372,7 +16374,7 @@
         <v>8</v>
       </c>
       <c r="D308" s="8" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="E308" s="8" t="s">
         <v>2222</v>
@@ -16390,7 +16392,7 @@
         <v>8</v>
       </c>
       <c r="D309" s="8" t="s">
-        <v>2446</v>
+        <v>2445</v>
       </c>
       <c r="E309" s="8" t="s">
         <v>2222</v>
@@ -16408,7 +16410,7 @@
         <v>8</v>
       </c>
       <c r="D310" s="8" t="s">
-        <v>2447</v>
+        <v>2446</v>
       </c>
       <c r="E310" s="8" t="s">
         <v>2222</v>
@@ -16426,7 +16428,7 @@
         <v>8</v>
       </c>
       <c r="D311" s="8" t="s">
-        <v>2448</v>
+        <v>2447</v>
       </c>
       <c r="E311" s="8" t="s">
         <v>2222</v>
@@ -16444,7 +16446,7 @@
         <v>8</v>
       </c>
       <c r="D312" s="8" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="E312" s="8" t="s">
         <v>2222</v>
@@ -16462,13 +16464,13 @@
         <v>8</v>
       </c>
       <c r="D313" s="8" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="E313" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F313" s="10" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="314" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -16488,7 +16490,7 @@
         <v>2222</v>
       </c>
       <c r="F314" s="10" t="s">
-        <v>2651</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="315" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16508,7 +16510,7 @@
         <v>2222</v>
       </c>
       <c r="F315" s="10" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="316" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -16528,7 +16530,7 @@
         <v>2222</v>
       </c>
       <c r="F316" s="10" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="317" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -16548,7 +16550,7 @@
         <v>2222</v>
       </c>
       <c r="F317" s="10" t="s">
-        <v>2654</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="318" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16568,7 +16570,7 @@
         <v>2222</v>
       </c>
       <c r="F318" s="10" t="s">
-        <v>2655</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="319" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16588,7 +16590,7 @@
         <v>2222</v>
       </c>
       <c r="F319" s="10" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
     </row>
     <row r="320" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -16608,7 +16610,7 @@
         <v>2234</v>
       </c>
       <c r="F320" s="10" t="s">
-        <v>2340</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="321" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16628,7 +16630,7 @@
         <v>2222</v>
       </c>
       <c r="F321" s="10" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="322" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16648,7 +16650,7 @@
         <v>2222</v>
       </c>
       <c r="F322" s="10" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="323" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16668,7 +16670,7 @@
         <v>2222</v>
       </c>
       <c r="F323" s="10" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="324" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16688,7 +16690,7 @@
         <v>2222</v>
       </c>
       <c r="F324" s="10" t="s">
-        <v>2659</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="325" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16708,7 +16710,7 @@
         <v>2261</v>
       </c>
       <c r="F325" s="10" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="326" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -16725,10 +16727,10 @@
         <v>554</v>
       </c>
       <c r="E326" s="8" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="F326" s="10" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
     </row>
     <row r="327" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16748,7 +16750,7 @@
         <v>2222</v>
       </c>
       <c r="F327" s="10" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="328" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16768,7 +16770,7 @@
         <v>2222</v>
       </c>
       <c r="F328" s="10" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="329" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16788,7 +16790,7 @@
         <v>2222</v>
       </c>
       <c r="F329" s="10" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row r="330" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16808,7 +16810,7 @@
         <v>2222</v>
       </c>
       <c r="F330" s="10" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
     </row>
     <row r="331" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16828,7 +16830,7 @@
         <v>2222</v>
       </c>
       <c r="F331" s="10" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="332" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16848,7 +16850,7 @@
         <v>2222</v>
       </c>
       <c r="F332" s="10" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="333" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16868,7 +16870,7 @@
         <v>2222</v>
       </c>
       <c r="F333" s="10" t="s">
-        <v>2663</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="334" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16888,7 +16890,7 @@
         <v>2222</v>
       </c>
       <c r="F334" s="10" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="335" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16902,7 +16904,7 @@
         <v>8</v>
       </c>
       <c r="D335" s="8" t="s">
-        <v>2450</v>
+        <v>2449</v>
       </c>
       <c r="E335" s="8" t="s">
         <v>2222</v>
@@ -16920,7 +16922,7 @@
         <v>8</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="E336" s="8" t="s">
         <v>2222</v>
@@ -16944,7 +16946,7 @@
         <v>2222</v>
       </c>
       <c r="F337" s="10" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="338" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -16964,7 +16966,7 @@
         <v>2222</v>
       </c>
       <c r="F338" s="10" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="339" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -16984,7 +16986,7 @@
         <v>2222</v>
       </c>
       <c r="F339" s="10" t="s">
-        <v>2668</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="340" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17004,7 +17006,7 @@
         <v>2222</v>
       </c>
       <c r="F340" s="10" t="s">
-        <v>2669</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="341" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17024,7 +17026,7 @@
         <v>2222</v>
       </c>
       <c r="F341" s="10" t="s">
-        <v>2670</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="342" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17044,7 +17046,7 @@
         <v>2222</v>
       </c>
       <c r="F342" s="10" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
     </row>
     <row r="343" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -17064,7 +17066,7 @@
         <v>2222</v>
       </c>
       <c r="F343" s="10" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="344" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17084,7 +17086,7 @@
         <v>2222</v>
       </c>
       <c r="F344" s="10" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="345" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17104,7 +17106,7 @@
         <v>2222</v>
       </c>
       <c r="F345" s="10" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
     </row>
     <row r="346" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17124,7 +17126,7 @@
         <v>2222</v>
       </c>
       <c r="F346" s="10" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
     </row>
     <row r="347" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17144,7 +17146,7 @@
         <v>2222</v>
       </c>
       <c r="F347" s="10" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="348" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17164,7 +17166,7 @@
         <v>2222</v>
       </c>
       <c r="F348" s="10" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
     </row>
     <row r="349" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17184,7 +17186,7 @@
         <v>2222</v>
       </c>
       <c r="F349" s="10" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="350" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17198,10 +17200,10 @@
         <v>8</v>
       </c>
       <c r="D350" s="8" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="E350" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F350" s="10"/>
     </row>
@@ -17216,10 +17218,10 @@
         <v>8</v>
       </c>
       <c r="D351" s="8" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="E351" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F351" s="11"/>
     </row>
@@ -17234,10 +17236,10 @@
         <v>8</v>
       </c>
       <c r="D352" s="8" t="s">
-        <v>2454</v>
+        <v>2453</v>
       </c>
       <c r="E352" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F352" s="11"/>
     </row>
@@ -17252,10 +17254,10 @@
         <v>8</v>
       </c>
       <c r="D353" s="8" t="s">
-        <v>2455</v>
+        <v>2454</v>
       </c>
       <c r="E353" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F353" s="11"/>
     </row>
@@ -17270,10 +17272,10 @@
         <v>8</v>
       </c>
       <c r="D354" s="8" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="E354" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F354" s="11"/>
     </row>
@@ -17288,10 +17290,10 @@
         <v>8</v>
       </c>
       <c r="D355" s="8" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="E355" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F355" s="11"/>
     </row>
@@ -17306,10 +17308,10 @@
         <v>8</v>
       </c>
       <c r="D356" s="8" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="E356" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F356" s="11"/>
     </row>
@@ -17324,10 +17326,10 @@
         <v>8</v>
       </c>
       <c r="D357" s="8" t="s">
-        <v>2459</v>
+        <v>2458</v>
       </c>
       <c r="E357" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F357" s="11"/>
     </row>
@@ -17342,10 +17344,10 @@
         <v>8</v>
       </c>
       <c r="D358" s="8" t="s">
-        <v>2460</v>
+        <v>2459</v>
       </c>
       <c r="E358" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F358" s="11"/>
     </row>
@@ -17360,10 +17362,10 @@
         <v>8</v>
       </c>
       <c r="D359" s="8" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="E359" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F359" s="11"/>
     </row>
@@ -17378,10 +17380,10 @@
         <v>8</v>
       </c>
       <c r="D360" s="8" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="E360" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F360" s="11"/>
     </row>
@@ -17396,10 +17398,10 @@
         <v>8</v>
       </c>
       <c r="D361" s="8" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="E361" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F361" s="11"/>
     </row>
@@ -17414,10 +17416,10 @@
         <v>8</v>
       </c>
       <c r="D362" s="8" t="s">
-        <v>2464</v>
+        <v>2463</v>
       </c>
       <c r="E362" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F362" s="11"/>
     </row>
@@ -17432,10 +17434,10 @@
         <v>8</v>
       </c>
       <c r="D363" s="8" t="s">
-        <v>2465</v>
+        <v>2464</v>
       </c>
       <c r="E363" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F363" s="11"/>
     </row>
@@ -17450,10 +17452,10 @@
         <v>8</v>
       </c>
       <c r="D364" s="8" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F364" s="11"/>
     </row>
@@ -17468,10 +17470,10 @@
         <v>8</v>
       </c>
       <c r="D365" s="8" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="E365" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F365" s="11"/>
     </row>
@@ -17486,10 +17488,10 @@
         <v>8</v>
       </c>
       <c r="D366" s="8" t="s">
-        <v>2468</v>
+        <v>2467</v>
       </c>
       <c r="E366" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F366" s="11"/>
     </row>
@@ -17504,7 +17506,7 @@
         <v>8</v>
       </c>
       <c r="D367" s="8" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="E367" s="8" t="s">
         <v>2235</v>
@@ -17528,7 +17530,7 @@
         <v>2222</v>
       </c>
       <c r="F368" s="10" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="369" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17548,7 +17550,7 @@
         <v>2222</v>
       </c>
       <c r="F369" s="10" t="s">
-        <v>2565</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="370" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17568,7 +17570,7 @@
         <v>2222</v>
       </c>
       <c r="F370" s="10" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
     </row>
     <row r="371" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17588,7 +17590,7 @@
         <v>2222</v>
       </c>
       <c r="F371" s="10" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
     </row>
     <row r="372" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17608,7 +17610,7 @@
         <v>2222</v>
       </c>
       <c r="F372" s="10" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="373" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17628,7 +17630,7 @@
         <v>2222</v>
       </c>
       <c r="F373" s="10" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -17645,10 +17647,10 @@
         <v>630</v>
       </c>
       <c r="E374" s="8" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="F374" s="10" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="375" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -17665,10 +17667,10 @@
         <v>632</v>
       </c>
       <c r="E375" s="8" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="F375" s="10" t="s">
-        <v>2568</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="376" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17688,7 +17690,7 @@
         <v>2222</v>
       </c>
       <c r="F376" s="10" t="s">
-        <v>2671</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="377" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17708,7 +17710,7 @@
         <v>2222</v>
       </c>
       <c r="F377" s="10" t="s">
-        <v>2672</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="378" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17728,7 +17730,7 @@
         <v>2222</v>
       </c>
       <c r="F378" s="10" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="379" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17748,7 +17750,7 @@
         <v>2222</v>
       </c>
       <c r="F379" s="10" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="380" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -17768,7 +17770,7 @@
         <v>2222</v>
       </c>
       <c r="F380" s="10" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
     </row>
     <row r="381" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17788,7 +17790,7 @@
         <v>2218</v>
       </c>
       <c r="F381" s="10" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="382" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17802,13 +17804,13 @@
         <v>8</v>
       </c>
       <c r="D382" s="8" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="E382" s="8" t="s">
         <v>2218</v>
       </c>
       <c r="F382" s="10" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="383" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17828,7 +17830,7 @@
         <v>2218</v>
       </c>
       <c r="F383" s="10" t="s">
-        <v>2676</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="384" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17848,7 +17850,7 @@
         <v>2218</v>
       </c>
       <c r="F384" s="10" t="s">
-        <v>2677</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17868,7 +17870,7 @@
         <v>2218</v>
       </c>
       <c r="F385" s="10" t="s">
-        <v>2678</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17888,7 +17890,7 @@
         <v>2218</v>
       </c>
       <c r="F386" s="10" t="s">
-        <v>2679</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17908,7 +17910,7 @@
         <v>2218</v>
       </c>
       <c r="F387" s="10" t="s">
-        <v>2680</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17928,7 +17930,7 @@
         <v>2218</v>
       </c>
       <c r="F388" s="10" t="s">
-        <v>2681</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17948,7 +17950,7 @@
         <v>2218</v>
       </c>
       <c r="F389" s="10" t="s">
-        <v>2682</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -17968,7 +17970,7 @@
         <v>2218</v>
       </c>
       <c r="F390" s="10" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -17988,7 +17990,7 @@
         <v>2236</v>
       </c>
       <c r="F391" s="10" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18008,7 +18010,7 @@
         <v>2222</v>
       </c>
       <c r="F392" s="10" t="s">
-        <v>2571</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18028,7 +18030,7 @@
         <v>2218</v>
       </c>
       <c r="F393" s="10" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18042,13 +18044,13 @@
         <v>8</v>
       </c>
       <c r="D394" s="8" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="E394" s="8" t="s">
         <v>2218</v>
       </c>
       <c r="F394" s="10" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18068,7 +18070,7 @@
         <v>2218</v>
       </c>
       <c r="F395" s="10" t="s">
-        <v>2686</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18088,7 +18090,7 @@
         <v>2218</v>
       </c>
       <c r="F396" s="10" t="s">
-        <v>2687</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18108,7 +18110,7 @@
         <v>2218</v>
       </c>
       <c r="F397" s="10" t="s">
-        <v>2688</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18128,7 +18130,7 @@
         <v>2218</v>
       </c>
       <c r="F398" s="10" t="s">
-        <v>2689</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18148,7 +18150,7 @@
         <v>2218</v>
       </c>
       <c r="F399" s="10" t="s">
-        <v>2690</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18168,7 +18170,7 @@
         <v>2218</v>
       </c>
       <c r="F400" s="10" t="s">
-        <v>2691</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18188,7 +18190,7 @@
         <v>2218</v>
       </c>
       <c r="F401" s="10" t="s">
-        <v>2692</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18208,7 +18210,7 @@
         <v>2218</v>
       </c>
       <c r="F402" s="10" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18228,7 +18230,7 @@
         <v>2218</v>
       </c>
       <c r="F403" s="10" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18248,7 +18250,7 @@
         <v>2218</v>
       </c>
       <c r="F404" s="10" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18268,7 +18270,7 @@
         <v>2218</v>
       </c>
       <c r="F405" s="10" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18288,7 +18290,7 @@
         <v>2218</v>
       </c>
       <c r="F406" s="10" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18308,7 +18310,7 @@
         <v>2218</v>
       </c>
       <c r="F407" s="10" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18328,7 +18330,7 @@
         <v>2218</v>
       </c>
       <c r="F408" s="10" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18348,7 +18350,7 @@
         <v>2218</v>
       </c>
       <c r="F409" s="10" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18368,7 +18370,7 @@
         <v>2218</v>
       </c>
       <c r="F410" s="10" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18388,7 +18390,7 @@
         <v>2218</v>
       </c>
       <c r="F411" s="10" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18408,7 +18410,7 @@
         <v>2222</v>
       </c>
       <c r="F412" s="10" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18428,7 +18430,7 @@
         <v>2222</v>
       </c>
       <c r="F413" s="10" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18448,7 +18450,7 @@
         <v>2222</v>
       </c>
       <c r="F414" s="10" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18468,7 +18470,7 @@
         <v>2222</v>
       </c>
       <c r="F415" s="10" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18488,7 +18490,7 @@
         <v>2222</v>
       </c>
       <c r="F416" s="10" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18508,7 +18510,7 @@
         <v>2222</v>
       </c>
       <c r="F417" s="10" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -18528,7 +18530,7 @@
         <v>2222</v>
       </c>
       <c r="F418" s="10" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18548,7 +18550,7 @@
         <v>2218</v>
       </c>
       <c r="F419" s="10" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18568,7 +18570,7 @@
         <v>2218</v>
       </c>
       <c r="F420" s="10" t="s">
-        <v>2837</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18588,7 +18590,7 @@
         <v>2218</v>
       </c>
       <c r="F421" s="10" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18608,7 +18610,7 @@
         <v>2218</v>
       </c>
       <c r="F422" s="10" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18628,7 +18630,7 @@
         <v>2218</v>
       </c>
       <c r="F423" s="10" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18642,7 +18644,7 @@
         <v>8</v>
       </c>
       <c r="D424" s="8" t="s">
-        <v>2482</v>
+        <v>2481</v>
       </c>
       <c r="E424" s="8" t="s">
         <v>2218</v>
@@ -18666,7 +18668,7 @@
         <v>2218</v>
       </c>
       <c r="F425" s="10" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -18686,7 +18688,7 @@
         <v>2237</v>
       </c>
       <c r="F426" s="10" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -18706,7 +18708,7 @@
         <v>2260</v>
       </c>
       <c r="F427" s="10" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18726,7 +18728,7 @@
         <v>2218</v>
       </c>
       <c r="F428" s="10" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18746,7 +18748,7 @@
         <v>2218</v>
       </c>
       <c r="F429" s="10" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18766,7 +18768,7 @@
         <v>2218</v>
       </c>
       <c r="F430" s="10" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18786,7 +18788,7 @@
         <v>2218</v>
       </c>
       <c r="F431" s="10" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18806,7 +18808,7 @@
         <v>2218</v>
       </c>
       <c r="F432" s="10" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="433" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18826,7 +18828,7 @@
         <v>2218</v>
       </c>
       <c r="F433" s="10" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="434" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18846,7 +18848,7 @@
         <v>2218</v>
       </c>
       <c r="F434" s="10" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="435" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18866,7 +18868,7 @@
         <v>2218</v>
       </c>
       <c r="F435" s="10" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="436" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18886,7 +18888,7 @@
         <v>2218</v>
       </c>
       <c r="F436" s="10" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="437" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -18906,7 +18908,7 @@
         <v>2218</v>
       </c>
       <c r="F437" s="10" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="438" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -18926,7 +18928,7 @@
         <v>2238</v>
       </c>
       <c r="F438" s="10" t="s">
-        <v>2344</v>
+        <v>2343</v>
       </c>
     </row>
     <row r="439" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -18946,7 +18948,7 @@
         <v>2239</v>
       </c>
       <c r="F439" s="10" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
     </row>
     <row r="440" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -18966,7 +18968,7 @@
         <v>2240</v>
       </c>
       <c r="F440" s="10" t="s">
-        <v>2346</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="441" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -18986,7 +18988,7 @@
         <v>2241</v>
       </c>
       <c r="F441" s="10" t="s">
-        <v>2347</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="442" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -19003,10 +19005,10 @@
         <v>762</v>
       </c>
       <c r="E442" s="8" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
       <c r="F442" s="10" t="s">
-        <v>2348</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="443" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -19026,7 +19028,7 @@
         <v>2242</v>
       </c>
       <c r="F443" s="10" t="s">
-        <v>2349</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="444" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19046,7 +19048,7 @@
         <v>2222</v>
       </c>
       <c r="F444" s="10" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="445" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -19066,7 +19068,7 @@
         <v>2222</v>
       </c>
       <c r="F445" s="10" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="446" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -19086,7 +19088,7 @@
         <v>2222</v>
       </c>
       <c r="F446" s="10" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="447" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -19106,7 +19108,7 @@
         <v>2222</v>
       </c>
       <c r="F447" s="10" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="448" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -19126,7 +19128,7 @@
         <v>2222</v>
       </c>
       <c r="F448" s="10" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="449" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19146,7 +19148,7 @@
         <v>2222</v>
       </c>
       <c r="F449" s="10" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="450" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -19166,7 +19168,7 @@
         <v>2222</v>
       </c>
       <c r="F450" s="10" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="451" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19186,7 +19188,7 @@
         <v>2222</v>
       </c>
       <c r="F451" s="10" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19203,10 +19205,10 @@
         <v>782</v>
       </c>
       <c r="E452" s="8" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
       <c r="F452" s="10" t="s">
-        <v>2485</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="453" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -19223,10 +19225,10 @@
         <v>784</v>
       </c>
       <c r="E453" s="8" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
       <c r="F453" s="10" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="454" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -19243,10 +19245,10 @@
         <v>786</v>
       </c>
       <c r="E454" s="8" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="F454" s="10" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="455" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -19263,10 +19265,10 @@
         <v>788</v>
       </c>
       <c r="E455" s="8" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
       <c r="F455" s="10" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="456" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19286,7 +19288,7 @@
         <v>2222</v>
       </c>
       <c r="F456" s="10" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="457" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -19306,7 +19308,7 @@
         <v>2243</v>
       </c>
       <c r="F457" s="10" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
     </row>
     <row r="458" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19326,7 +19328,7 @@
         <v>2222</v>
       </c>
       <c r="F458" s="10" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
     </row>
     <row r="459" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -19343,10 +19345,10 @@
         <v>796</v>
       </c>
       <c r="E459" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F459" s="10" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="460" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19366,7 +19368,7 @@
         <v>2222</v>
       </c>
       <c r="F460" s="10" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="461" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19383,10 +19385,10 @@
         <v>800</v>
       </c>
       <c r="E461" s="8" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
       <c r="F461" s="10" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="462" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19400,7 +19402,7 @@
         <v>8</v>
       </c>
       <c r="D462" s="8" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="E462" s="8" t="s">
         <v>2222</v>
@@ -19418,7 +19420,7 @@
         <v>8</v>
       </c>
       <c r="D463" s="8" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="E463" s="8" t="s">
         <v>2222</v>
@@ -19436,7 +19438,7 @@
         <v>8</v>
       </c>
       <c r="D464" s="8" t="s">
-        <v>2472</v>
+        <v>2471</v>
       </c>
       <c r="E464" s="8" t="s">
         <v>2222</v>
@@ -19454,7 +19456,7 @@
         <v>8</v>
       </c>
       <c r="D465" s="8" t="s">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="E465" s="8" t="s">
         <v>2263</v>
@@ -19478,7 +19480,7 @@
         <v>2222</v>
       </c>
       <c r="F466" s="10" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="467" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19498,7 +19500,7 @@
         <v>2222</v>
       </c>
       <c r="F467" s="10" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="468" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19518,7 +19520,7 @@
         <v>2222</v>
       </c>
       <c r="F468" s="10" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19538,7 +19540,7 @@
         <v>2222</v>
       </c>
       <c r="F469" s="10" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="470" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19558,7 +19560,7 @@
         <v>2222</v>
       </c>
       <c r="F470" s="10" t="s">
-        <v>2355</v>
+        <v>2354</v>
       </c>
     </row>
     <row r="471" spans="1:6" ht="112" x14ac:dyDescent="0.2">
@@ -19578,7 +19580,7 @@
         <v>2244</v>
       </c>
       <c r="F471" s="10" t="s">
-        <v>2356</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="472" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19598,7 +19600,7 @@
         <v>2222</v>
       </c>
       <c r="F472" s="10" t="s">
-        <v>2357</v>
+        <v>2356</v>
       </c>
     </row>
     <row r="473" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19618,7 +19620,7 @@
         <v>2222</v>
       </c>
       <c r="F473" s="10" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="474" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19638,7 +19640,7 @@
         <v>2222</v>
       </c>
       <c r="F474" s="10" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="475" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19658,7 +19660,7 @@
         <v>2222</v>
       </c>
       <c r="F475" s="10" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="476" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19678,7 +19680,7 @@
         <v>2222</v>
       </c>
       <c r="F476" s="10" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="477" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -19698,7 +19700,7 @@
         <v>2222</v>
       </c>
       <c r="F477" s="10" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="478" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -19718,7 +19720,7 @@
         <v>2222</v>
       </c>
       <c r="F478" s="10" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
     </row>
     <row r="479" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19738,7 +19740,7 @@
         <v>2222</v>
       </c>
       <c r="F479" s="10" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="480" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19758,7 +19760,7 @@
         <v>2222</v>
       </c>
       <c r="F480" s="10" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="481" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19778,7 +19780,7 @@
         <v>2222</v>
       </c>
       <c r="F481" s="10" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="482" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -19795,10 +19797,10 @@
         <v>834</v>
       </c>
       <c r="E482" s="8" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
       <c r="F482" s="10" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="483" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19815,10 +19817,10 @@
         <v>836</v>
       </c>
       <c r="E483" s="8" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
       <c r="F483" s="10" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="484" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19835,10 +19837,10 @@
         <v>838</v>
       </c>
       <c r="E484" s="8" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
       <c r="F484" s="10" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="485" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19855,10 +19857,10 @@
         <v>840</v>
       </c>
       <c r="E485" s="8" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
       <c r="F485" s="10" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="486" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19875,10 +19877,10 @@
         <v>842</v>
       </c>
       <c r="E486" s="8" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
       <c r="F486" s="10" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="487" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19895,10 +19897,10 @@
         <v>844</v>
       </c>
       <c r="E487" s="8" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
       <c r="F487" s="10" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19915,10 +19917,10 @@
         <v>846</v>
       </c>
       <c r="E488" s="8" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="F488" s="10" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="489" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -19935,10 +19937,10 @@
         <v>848</v>
       </c>
       <c r="E489" s="8" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="F489" s="10" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="490" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19958,7 +19960,7 @@
         <v>2222</v>
       </c>
       <c r="F490" s="10" t="s">
-        <v>2358</v>
+        <v>2357</v>
       </c>
     </row>
     <row r="491" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19978,7 +19980,7 @@
         <v>2222</v>
       </c>
       <c r="F491" s="10" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="492" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -19998,7 +20000,7 @@
         <v>2222</v>
       </c>
       <c r="F492" s="10" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="493" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20018,7 +20020,7 @@
         <v>2222</v>
       </c>
       <c r="F493" s="10" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="494" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20038,7 +20040,7 @@
         <v>2222</v>
       </c>
       <c r="F494" s="10" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
     </row>
     <row r="495" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20058,7 +20060,7 @@
         <v>2222</v>
       </c>
       <c r="F495" s="10" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
     </row>
     <row r="496" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20078,7 +20080,7 @@
         <v>2222</v>
       </c>
       <c r="F496" s="10" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="497" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20098,7 +20100,7 @@
         <v>2222</v>
       </c>
       <c r="F497" s="10" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
     </row>
     <row r="498" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20115,10 +20117,10 @@
         <v>866</v>
       </c>
       <c r="E498" s="8" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
       <c r="F498" s="10" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="499" spans="1:6" ht="176" x14ac:dyDescent="0.2">
@@ -20138,7 +20140,7 @@
         <v>2245</v>
       </c>
       <c r="F499" s="10" t="s">
-        <v>2582</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="500" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20155,10 +20157,10 @@
         <v>870</v>
       </c>
       <c r="E500" s="8" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
       <c r="F500" s="10" t="s">
-        <v>2836</v>
+        <v>2835</v>
       </c>
     </row>
     <row r="501" spans="1:6" ht="160" x14ac:dyDescent="0.2">
@@ -20178,7 +20180,7 @@
         <v>2246</v>
       </c>
       <c r="F501" s="10" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="502" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20198,7 +20200,7 @@
         <v>2222</v>
       </c>
       <c r="F502" s="10" t="s">
-        <v>2484</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="503" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -20218,7 +20220,7 @@
         <v>2247</v>
       </c>
       <c r="F503" s="10" t="s">
-        <v>2359</v>
+        <v>2358</v>
       </c>
     </row>
     <row r="504" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20238,7 +20240,7 @@
         <v>2222</v>
       </c>
       <c r="F504" s="10" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="505" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20255,10 +20257,10 @@
         <v>880</v>
       </c>
       <c r="E505" s="8" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
       <c r="F505" s="10" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="506" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20278,7 +20280,7 @@
         <v>2248</v>
       </c>
       <c r="F506" s="10" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="507" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20295,10 +20297,10 @@
         <v>884</v>
       </c>
       <c r="E507" s="8" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
       <c r="F507" s="10" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
     </row>
     <row r="508" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -20318,7 +20320,7 @@
         <v>2249</v>
       </c>
       <c r="F508" s="10" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
     </row>
     <row r="509" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20338,7 +20340,7 @@
         <v>2222</v>
       </c>
       <c r="F509" s="10" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="510" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20358,7 +20360,7 @@
         <v>2222</v>
       </c>
       <c r="F510" s="10" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="511" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -20372,10 +20374,10 @@
         <v>8</v>
       </c>
       <c r="D511" s="8" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="E511" s="12" t="s">
-        <v>3081</v>
+        <v>3080</v>
       </c>
       <c r="F511" s="11"/>
     </row>
@@ -20390,13 +20392,13 @@
         <v>8</v>
       </c>
       <c r="D512" s="8" t="s">
-        <v>2295</v>
+        <v>2294</v>
       </c>
       <c r="E512" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F512" s="10" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="513" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20416,7 +20418,7 @@
         <v>2222</v>
       </c>
       <c r="F513" s="10" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="514" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20436,7 +20438,7 @@
         <v>2222</v>
       </c>
       <c r="F514" s="10" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="515" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20456,7 +20458,7 @@
         <v>2222</v>
       </c>
       <c r="F515" s="10" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="516" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20476,7 +20478,7 @@
         <v>2222</v>
       </c>
       <c r="F516" s="10" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="517" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20496,7 +20498,7 @@
         <v>2222</v>
       </c>
       <c r="F517" s="10" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="518" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20510,13 +20512,13 @@
         <v>8</v>
       </c>
       <c r="D518" s="8" t="s">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="E518" s="8" t="s">
         <v>2222</v>
       </c>
       <c r="F518" s="10" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="519" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -20533,10 +20535,10 @@
         <v>904</v>
       </c>
       <c r="E519" s="8" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="F519" s="10" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="520" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -20553,10 +20555,10 @@
         <v>906</v>
       </c>
       <c r="E520" s="8" t="s">
-        <v>2287</v>
+        <v>2286</v>
       </c>
       <c r="F520" s="10" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="521" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20573,10 +20575,10 @@
         <v>908</v>
       </c>
       <c r="E521" s="8" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="F521" s="10" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="522" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20593,10 +20595,10 @@
         <v>910</v>
       </c>
       <c r="E522" s="8" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="F522" s="10" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="523" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20613,10 +20615,10 @@
         <v>912</v>
       </c>
       <c r="E523" s="8" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="F523" s="10" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20633,10 +20635,10 @@
         <v>914</v>
       </c>
       <c r="E524" s="8" t="s">
-        <v>3039</v>
+        <v>3038</v>
       </c>
       <c r="F524" s="10" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="525" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20653,10 +20655,10 @@
         <v>916</v>
       </c>
       <c r="E525" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F525" s="10" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="526" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -20676,7 +20678,7 @@
         <v>2250</v>
       </c>
       <c r="F526" s="10" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="527" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20693,10 +20695,10 @@
         <v>920</v>
       </c>
       <c r="E527" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F527" s="10" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="528" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -20716,7 +20718,7 @@
         <v>2250</v>
       </c>
       <c r="F528" s="10" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="529" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20736,7 +20738,7 @@
         <v>2222</v>
       </c>
       <c r="F529" s="10" t="s">
-        <v>2365</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="530" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -20753,10 +20755,10 @@
         <v>926</v>
       </c>
       <c r="E530" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F530" s="10" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="531" spans="1:6" ht="96" x14ac:dyDescent="0.2">
@@ -20776,7 +20778,7 @@
         <v>2251</v>
       </c>
       <c r="F531" s="10" t="s">
-        <v>2366</v>
+        <v>2365</v>
       </c>
     </row>
     <row r="532" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -20790,7 +20792,7 @@
         <v>8</v>
       </c>
       <c r="D532" s="8" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="E532" s="8" t="s">
         <v>2218</v>
@@ -20814,7 +20816,7 @@
         <v>2222</v>
       </c>
       <c r="F533" s="10" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="534" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20834,7 +20836,7 @@
         <v>2222</v>
       </c>
       <c r="F534" s="10" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="535" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20854,7 +20856,7 @@
         <v>2222</v>
       </c>
       <c r="F535" s="10" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="536" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20874,7 +20876,7 @@
         <v>2222</v>
       </c>
       <c r="F536" s="10" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="537" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20894,7 +20896,7 @@
         <v>2222</v>
       </c>
       <c r="F537" s="10" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="538" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20914,7 +20916,7 @@
         <v>2222</v>
       </c>
       <c r="F538" s="10" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="539" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20934,7 +20936,7 @@
         <v>2222</v>
       </c>
       <c r="F539" s="10" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="540" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20951,10 +20953,10 @@
         <v>945</v>
       </c>
       <c r="E540" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F540" s="10" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="541" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20971,10 +20973,10 @@
         <v>947</v>
       </c>
       <c r="E541" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F541" s="10" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="542" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -20991,10 +20993,10 @@
         <v>949</v>
       </c>
       <c r="E542" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F542" s="10" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21011,10 +21013,10 @@
         <v>951</v>
       </c>
       <c r="E543" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F543" s="10" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="544" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21031,10 +21033,10 @@
         <v>953</v>
       </c>
       <c r="E544" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F544" s="10" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="545" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21051,10 +21053,10 @@
         <v>955</v>
       </c>
       <c r="E545" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F545" s="10" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="546" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21071,10 +21073,10 @@
         <v>957</v>
       </c>
       <c r="E546" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F546" s="10" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="547" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21094,7 +21096,7 @@
         <v>2222</v>
       </c>
       <c r="F547" s="10" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="548" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -21114,7 +21116,7 @@
         <v>2222</v>
       </c>
       <c r="F548" s="10" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="549" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -21134,7 +21136,7 @@
         <v>2222</v>
       </c>
       <c r="F549" s="10" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="550" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -21154,7 +21156,7 @@
         <v>2222</v>
       </c>
       <c r="F550" s="10" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="551" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -21174,7 +21176,7 @@
         <v>2222</v>
       </c>
       <c r="F551" s="10" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="552" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21194,7 +21196,7 @@
         <v>2222</v>
       </c>
       <c r="F552" s="10" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="553" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21214,7 +21216,7 @@
         <v>2222</v>
       </c>
       <c r="F553" s="10" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="554" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -21234,7 +21236,7 @@
         <v>2252</v>
       </c>
       <c r="F554" s="10" t="s">
-        <v>2367</v>
+        <v>2366</v>
       </c>
     </row>
     <row r="555" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21254,7 +21256,7 @@
         <v>2222</v>
       </c>
       <c r="F555" s="10" t="s">
-        <v>2368</v>
+        <v>2367</v>
       </c>
     </row>
     <row r="556" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -21274,7 +21276,7 @@
         <v>2253</v>
       </c>
       <c r="F556" s="10" t="s">
-        <v>2369</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="557" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21291,10 +21293,10 @@
         <v>979</v>
       </c>
       <c r="E557" s="8" t="s">
-        <v>3040</v>
+        <v>3039</v>
       </c>
       <c r="F557" s="10" t="s">
-        <v>2370</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="558" spans="1:6" ht="64" x14ac:dyDescent="0.2">
@@ -21314,7 +21316,7 @@
         <v>2254</v>
       </c>
       <c r="F558" s="10" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="559" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21334,7 +21336,7 @@
         <v>2222</v>
       </c>
       <c r="F559" s="10" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="560" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21354,7 +21356,7 @@
         <v>2222</v>
       </c>
       <c r="F560" s="10" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="561" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21374,7 +21376,7 @@
         <v>2222</v>
       </c>
       <c r="F561" s="10" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21394,7 +21396,7 @@
         <v>2222</v>
       </c>
       <c r="F562" s="10" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="563" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -21411,10 +21413,10 @@
         <v>991</v>
       </c>
       <c r="E563" s="8" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="F563" s="10" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="564" spans="1:6" x14ac:dyDescent="0.2">
@@ -21422,16 +21424,16 @@
         <v>562</v>
       </c>
       <c r="B564" s="14" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="C564" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D564" s="8" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="E564" s="8" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="F564" s="10"/>
     </row>
@@ -21440,16 +21442,16 @@
         <v>563</v>
       </c>
       <c r="B565" s="14" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="C565" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D565" s="8" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="E565" s="8" t="s">
-        <v>3042</v>
+        <v>3041</v>
       </c>
       <c r="F565" s="10"/>
     </row>
@@ -21458,16 +21460,16 @@
         <v>564</v>
       </c>
       <c r="B566" s="14" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="C566" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D566" s="8" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="E566" s="8" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="F566" s="10"/>
     </row>
@@ -21476,16 +21478,16 @@
         <v>565</v>
       </c>
       <c r="B567" s="14" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="C567" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D567" s="8" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="E567" s="8" t="s">
-        <v>3043</v>
+        <v>3042</v>
       </c>
       <c r="F567" s="10"/>
     </row>
@@ -21494,16 +21496,16 @@
         <v>566</v>
       </c>
       <c r="B568" s="14" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="C568" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D568" s="8" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="E568" s="8" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="F568" s="10"/>
     </row>
@@ -21512,16 +21514,16 @@
         <v>567</v>
       </c>
       <c r="B569" s="14" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="C569" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D569" s="8" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="E569" s="8" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="F569" s="10"/>
     </row>
@@ -21530,16 +21532,16 @@
         <v>568</v>
       </c>
       <c r="B570" s="14" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="C570" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D570" s="8" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="E570" s="8" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="F570" s="10"/>
     </row>
@@ -21548,16 +21550,16 @@
         <v>569</v>
       </c>
       <c r="B571" s="14" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="C571" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D571" s="8" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="E571" s="8" t="s">
-        <v>3047</v>
+        <v>3046</v>
       </c>
       <c r="F571" s="10"/>
     </row>
@@ -21566,16 +21568,16 @@
         <v>570</v>
       </c>
       <c r="B572" s="14" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="C572" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D572" s="8" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="E572" s="8" t="s">
-        <v>3048</v>
+        <v>3047</v>
       </c>
       <c r="F572" s="10"/>
     </row>
@@ -21584,16 +21586,16 @@
         <v>571</v>
       </c>
       <c r="B573" s="14" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="C573" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D573" s="8" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="E573" s="9" t="s">
-        <v>3049</v>
+        <v>3048</v>
       </c>
       <c r="F573" s="10"/>
     </row>
@@ -21602,16 +21604,16 @@
         <v>572</v>
       </c>
       <c r="B574" s="14" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="C574" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D574" s="8" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="E574" s="8" t="s">
-        <v>3050</v>
+        <v>3049</v>
       </c>
       <c r="F574" s="10"/>
     </row>
@@ -21620,16 +21622,16 @@
         <v>573</v>
       </c>
       <c r="B575" s="14" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="C575" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D575" s="8" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="E575" s="8" t="s">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="F575" s="10"/>
     </row>
@@ -21638,16 +21640,16 @@
         <v>574</v>
       </c>
       <c r="B576" s="14" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="C576" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D576" s="8" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="E576" s="8" t="s">
-        <v>3052</v>
+        <v>3051</v>
       </c>
       <c r="F576" s="10"/>
     </row>
@@ -21656,16 +21658,16 @@
         <v>575</v>
       </c>
       <c r="B577" s="14" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="C577" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D577" s="8" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="E577" s="8" t="s">
-        <v>3053</v>
+        <v>3052</v>
       </c>
       <c r="F577" s="10"/>
     </row>
@@ -21674,13 +21676,13 @@
         <v>576</v>
       </c>
       <c r="B578" s="14" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="C578" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D578" s="8" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="E578" s="8" t="s">
         <v>2218</v>
@@ -21692,13 +21694,13 @@
         <v>577</v>
       </c>
       <c r="B579" s="14" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="C579" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D579" s="8" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="E579" s="8" t="s">
         <v>2218</v>
@@ -21710,13 +21712,13 @@
         <v>578</v>
       </c>
       <c r="B580" s="14" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="C580" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D580" s="8" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="E580" s="8" t="s">
         <v>2218</v>
@@ -21728,13 +21730,13 @@
         <v>579</v>
       </c>
       <c r="B581" s="14" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
       <c r="C581" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D581" s="8" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="E581" s="8" t="s">
         <v>2218</v>
@@ -21746,13 +21748,13 @@
         <v>580</v>
       </c>
       <c r="B582" s="14" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
       <c r="C582" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D582" s="8" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="E582" s="8" t="s">
         <v>2218</v>
@@ -21764,13 +21766,13 @@
         <v>581</v>
       </c>
       <c r="B583" s="14" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="C583" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D583" s="8" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="E583" s="8" t="s">
         <v>2218</v>
@@ -21782,13 +21784,13 @@
         <v>582</v>
       </c>
       <c r="B584" s="14" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="C584" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D584" s="8" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="E584" s="8" t="s">
         <v>2218</v>
@@ -21800,13 +21802,13 @@
         <v>583</v>
       </c>
       <c r="B585" s="14" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="C585" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D585" s="8" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="E585" s="8" t="s">
         <v>2218</v>
@@ -21818,16 +21820,16 @@
         <v>584</v>
       </c>
       <c r="B586" s="14" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="C586" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D586" s="8" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="E586" s="8" t="s">
-        <v>3054</v>
+        <v>3053</v>
       </c>
       <c r="F586" s="10"/>
     </row>
@@ -21836,16 +21838,16 @@
         <v>585</v>
       </c>
       <c r="B587" s="14" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="C587" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D587" s="8" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="E587" s="12" t="s">
-        <v>3085</v>
+        <v>3084</v>
       </c>
       <c r="F587" s="10"/>
     </row>
@@ -21854,16 +21856,16 @@
         <v>586</v>
       </c>
       <c r="B588" s="14" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="C588" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D588" s="12" t="s">
-        <v>3087</v>
+        <v>3086</v>
       </c>
       <c r="E588" s="8" t="s">
-        <v>3055</v>
+        <v>3054</v>
       </c>
       <c r="F588" s="10"/>
     </row>
@@ -21872,16 +21874,16 @@
         <v>587</v>
       </c>
       <c r="B589" s="14" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="C589" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D589" s="12" t="s">
-        <v>3088</v>
+        <v>3087</v>
       </c>
       <c r="E589" s="8" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="F589" s="10"/>
     </row>
@@ -21890,16 +21892,16 @@
         <v>588</v>
       </c>
       <c r="B590" s="14" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="C590" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D590" s="12" t="s">
-        <v>3089</v>
+        <v>3088</v>
       </c>
       <c r="E590" s="8" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="F590" s="10"/>
     </row>
@@ -21908,16 +21910,16 @@
         <v>589</v>
       </c>
       <c r="B591" s="14" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="C591" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D591" s="12" t="s">
-        <v>3090</v>
+        <v>3089</v>
       </c>
       <c r="E591" s="8" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="F591" s="10"/>
     </row>
@@ -21926,16 +21928,16 @@
         <v>590</v>
       </c>
       <c r="B592" s="14" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="C592" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D592" s="12" t="s">
-        <v>3091</v>
+        <v>3090</v>
       </c>
       <c r="E592" s="8" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="F592" s="10"/>
     </row>
@@ -21944,16 +21946,16 @@
         <v>591</v>
       </c>
       <c r="B593" s="14" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="C593" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D593" s="12" t="s">
-        <v>3092</v>
+        <v>3091</v>
       </c>
       <c r="E593" s="8" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="F593" s="10"/>
     </row>
@@ -21962,16 +21964,16 @@
         <v>592</v>
       </c>
       <c r="B594" s="14" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="C594" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D594" s="12" t="s">
-        <v>3093</v>
+        <v>3092</v>
       </c>
       <c r="E594" s="8" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="F594" s="10"/>
     </row>
@@ -21980,16 +21982,16 @@
         <v>593</v>
       </c>
       <c r="B595" s="14" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="C595" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D595" s="12" t="s">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="E595" s="8" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="F595" s="10"/>
     </row>
@@ -21998,16 +22000,16 @@
         <v>594</v>
       </c>
       <c r="B596" s="14" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="C596" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D596" s="12" t="s">
-        <v>3095</v>
+        <v>3094</v>
       </c>
       <c r="E596" s="8" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="F596" s="10"/>
     </row>
@@ -22016,16 +22018,16 @@
         <v>595</v>
       </c>
       <c r="B597" s="14" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="C597" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D597" s="12" t="s">
-        <v>3096</v>
+        <v>3095</v>
       </c>
       <c r="E597" s="8" t="s">
-        <v>3064</v>
+        <v>3063</v>
       </c>
       <c r="F597" s="10"/>
     </row>
@@ -22034,16 +22036,16 @@
         <v>596</v>
       </c>
       <c r="B598" s="14" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="C598" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D598" s="8" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="E598" s="8" t="s">
-        <v>3065</v>
+        <v>3064</v>
       </c>
       <c r="F598" s="10"/>
     </row>
@@ -22052,16 +22054,16 @@
         <v>597</v>
       </c>
       <c r="B599" s="14" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="C599" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D599" s="8" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="E599" s="8" t="s">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="F599" s="10"/>
     </row>
@@ -22070,16 +22072,16 @@
         <v>598</v>
       </c>
       <c r="B600" s="14" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="C600" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D600" s="8" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="E600" s="8" t="s">
-        <v>3057</v>
+        <v>3056</v>
       </c>
       <c r="F600" s="10"/>
     </row>
@@ -22088,16 +22090,16 @@
         <v>599</v>
       </c>
       <c r="B601" s="14" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="C601" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D601" s="8" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="E601" s="8" t="s">
-        <v>3066</v>
+        <v>3065</v>
       </c>
       <c r="F601" s="10"/>
     </row>
@@ -22106,16 +22108,16 @@
         <v>600</v>
       </c>
       <c r="B602" s="14" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="C602" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D602" s="8" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="E602" s="8" t="s">
-        <v>3059</v>
+        <v>3058</v>
       </c>
       <c r="F602" s="10"/>
     </row>
@@ -22124,16 +22126,16 @@
         <v>601</v>
       </c>
       <c r="B603" s="14" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="C603" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D603" s="8" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="E603" s="8" t="s">
-        <v>3067</v>
+        <v>3066</v>
       </c>
       <c r="F603" s="10"/>
     </row>
@@ -22142,16 +22144,16 @@
         <v>602</v>
       </c>
       <c r="B604" s="14" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="C604" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D604" s="8" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="E604" s="8" t="s">
-        <v>3061</v>
+        <v>3060</v>
       </c>
       <c r="F604" s="10"/>
     </row>
@@ -22160,16 +22162,16 @@
         <v>603</v>
       </c>
       <c r="B605" s="14" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="C605" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D605" s="8" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="E605" s="8" t="s">
-        <v>3062</v>
+        <v>3061</v>
       </c>
       <c r="F605" s="10"/>
     </row>
@@ -22178,16 +22180,16 @@
         <v>604</v>
       </c>
       <c r="B606" s="14" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="C606" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D606" s="8" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="E606" s="12" t="s">
-        <v>3063</v>
+        <v>3062</v>
       </c>
       <c r="F606" s="10"/>
     </row>
@@ -22196,16 +22198,16 @@
         <v>605</v>
       </c>
       <c r="B607" s="14" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="C607" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D607" s="8" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="E607" s="12" t="s">
-        <v>3086</v>
+        <v>3085</v>
       </c>
       <c r="F607" s="10"/>
     </row>
@@ -22214,16 +22216,16 @@
         <v>606</v>
       </c>
       <c r="B608" s="14" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="C608" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D608" s="8" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="E608" s="8" t="s">
-        <v>3068</v>
+        <v>3067</v>
       </c>
       <c r="F608" s="10"/>
     </row>
@@ -22232,16 +22234,16 @@
         <v>607</v>
       </c>
       <c r="B609" s="14" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="C609" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D609" s="8" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="E609" s="8" t="s">
-        <v>3069</v>
+        <v>3068</v>
       </c>
       <c r="F609" s="10"/>
     </row>
@@ -22250,16 +22252,16 @@
         <v>608</v>
       </c>
       <c r="B610" s="14" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="C610" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D610" s="8" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="E610" s="8" t="s">
-        <v>3058</v>
+        <v>3057</v>
       </c>
       <c r="F610" s="10"/>
     </row>
@@ -22268,16 +22270,16 @@
         <v>609</v>
       </c>
       <c r="B611" s="14" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="C611" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D611" s="8" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="E611" s="8" t="s">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="F611" s="10"/>
     </row>
@@ -22286,16 +22288,16 @@
         <v>610</v>
       </c>
       <c r="B612" s="14" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="C612" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D612" s="8" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="E612" s="8" t="s">
-        <v>3070</v>
+        <v>3069</v>
       </c>
       <c r="F612" s="10"/>
     </row>
@@ -22304,16 +22306,16 @@
         <v>611</v>
       </c>
       <c r="B613" s="14" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="C613" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D613" s="8" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="E613" s="8" t="s">
-        <v>3071</v>
+        <v>3070</v>
       </c>
       <c r="F613" s="10"/>
     </row>
@@ -22322,16 +22324,16 @@
         <v>612</v>
       </c>
       <c r="B614" s="14" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="C614" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D614" s="8" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="E614" s="8" t="s">
-        <v>3072</v>
+        <v>3071</v>
       </c>
       <c r="F614" s="10"/>
     </row>
@@ -22340,16 +22342,16 @@
         <v>613</v>
       </c>
       <c r="B615" s="14" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="C615" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D615" s="8" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="E615" s="8" t="s">
-        <v>3073</v>
+        <v>3072</v>
       </c>
       <c r="F615" s="10"/>
     </row>
@@ -22358,16 +22360,16 @@
         <v>614</v>
       </c>
       <c r="B616" s="14" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="C616" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D616" s="8" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="E616" s="8" t="s">
-        <v>3074</v>
+        <v>3073</v>
       </c>
       <c r="F616" s="10"/>
     </row>
@@ -22376,16 +22378,16 @@
         <v>615</v>
       </c>
       <c r="B617" s="14" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="C617" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D617" s="8" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="E617" s="8" t="s">
-        <v>3075</v>
+        <v>3074</v>
       </c>
       <c r="F617" s="10"/>
     </row>
@@ -22394,16 +22396,16 @@
         <v>616</v>
       </c>
       <c r="B618" s="14" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="C618" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D618" s="8" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="E618" s="8" t="s">
-        <v>3076</v>
+        <v>3075</v>
       </c>
       <c r="F618" s="10"/>
     </row>
@@ -22412,16 +22414,16 @@
         <v>617</v>
       </c>
       <c r="B619" s="14" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C619" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D619" s="8" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="E619" s="8" t="s">
-        <v>3077</v>
+        <v>3076</v>
       </c>
       <c r="F619" s="10"/>
     </row>
@@ -22430,16 +22432,16 @@
         <v>618</v>
       </c>
       <c r="B620" s="14" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="C620" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D620" s="8" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="E620" s="8" t="s">
-        <v>3078</v>
+        <v>3077</v>
       </c>
       <c r="F620" s="10"/>
     </row>
@@ -22448,16 +22450,16 @@
         <v>619</v>
       </c>
       <c r="B621" s="14" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="C621" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D621" s="8" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="E621" s="8" t="s">
-        <v>3079</v>
+        <v>3078</v>
       </c>
       <c r="F621" s="10"/>
     </row>
@@ -22466,16 +22468,16 @@
         <v>620</v>
       </c>
       <c r="B622" s="14" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="C622" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D622" s="8" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="E622" s="8" t="s">
-        <v>3080</v>
+        <v>3079</v>
       </c>
       <c r="F622" s="10"/>
     </row>
@@ -22490,7 +22492,7 @@
         <v>8</v>
       </c>
       <c r="D623" s="8" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="E623" s="7"/>
       <c r="F623" s="11"/>
@@ -27172,7 +27174,7 @@
         <v>8</v>
       </c>
       <c r="D900" s="8" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="E900" s="8" t="s">
         <v>2255</v>
@@ -27244,7 +27246,7 @@
         <v>8</v>
       </c>
       <c r="D904" s="8" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="E904" s="8" t="s">
         <v>2255</v>
@@ -27370,7 +27372,7 @@
         <v>8</v>
       </c>
       <c r="D911" s="8" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="E911" s="8" t="s">
         <v>2255</v>
@@ -27478,7 +27480,7 @@
         <v>8</v>
       </c>
       <c r="D917" s="8" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="E917" s="8" t="s">
         <v>2255</v>
@@ -27622,7 +27624,7 @@
         <v>8</v>
       </c>
       <c r="D925" s="8" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="E925" s="8" t="s">
         <v>2255</v>
@@ -27730,7 +27732,7 @@
         <v>8</v>
       </c>
       <c r="D931" s="8" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="E931" s="8" t="s">
         <v>2255</v>
@@ -27784,7 +27786,7 @@
         <v>8</v>
       </c>
       <c r="D934" s="8" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="E934" s="8" t="s">
         <v>2255</v>
@@ -27892,7 +27894,7 @@
         <v>8</v>
       </c>
       <c r="D940" s="8" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="E940" s="8" t="s">
         <v>2255</v>
@@ -28000,7 +28002,7 @@
         <v>8</v>
       </c>
       <c r="D946" s="8" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="E946" s="8" t="s">
         <v>2255</v>
@@ -28522,7 +28524,7 @@
         <v>8</v>
       </c>
       <c r="D975" s="8" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="E975" s="8" t="s">
         <v>2255</v>
@@ -28954,7 +28956,7 @@
         <v>8</v>
       </c>
       <c r="D999" s="8" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="E999" s="8" t="s">
         <v>2255</v>
@@ -29062,7 +29064,7 @@
         <v>8</v>
       </c>
       <c r="D1005" s="8" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="E1005" s="8" t="s">
         <v>2255</v>
@@ -29692,7 +29694,7 @@
         <v>8</v>
       </c>
       <c r="D1040" s="8" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="E1040" s="8" t="s">
         <v>2255</v>
@@ -30268,7 +30270,7 @@
         <v>8</v>
       </c>
       <c r="D1072" s="8" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="E1072" s="8" t="s">
         <v>2255</v>
@@ -30484,7 +30486,7 @@
         <v>8</v>
       </c>
       <c r="D1084" s="8" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="E1084" s="8" t="s">
         <v>2255</v>
@@ -32320,7 +32322,7 @@
         <v>8</v>
       </c>
       <c r="D1186" s="8" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="E1186" s="8" t="s">
         <v>2255</v>
@@ -32428,7 +32430,7 @@
         <v>8</v>
       </c>
       <c r="D1192" s="8" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="E1192" s="8" t="s">
         <v>2255</v>
@@ -33322,16 +33324,16 @@
         <v>1240</v>
       </c>
       <c r="B1242" s="14" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="C1242" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1242" s="12" t="s">
-        <v>3097</v>
+        <v>3096</v>
       </c>
       <c r="E1242" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1242" s="11"/>
     </row>
@@ -33340,16 +33342,16 @@
         <v>1241</v>
       </c>
       <c r="B1243" s="14" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C1243" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D1243" s="12" t="s">
-        <v>3098</v>
+        <v>3097</v>
       </c>
       <c r="E1243" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1243" s="11"/>
     </row>
@@ -33358,16 +33360,16 @@
         <v>1242</v>
       </c>
       <c r="B1244" s="14" t="s">
+        <v>2912</v>
+      </c>
+      <c r="C1244" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1244" s="8" t="s">
         <v>2913</v>
       </c>
-      <c r="C1244" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1244" s="8" t="s">
-        <v>2914</v>
-      </c>
       <c r="E1244" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1244" s="11"/>
     </row>
@@ -33376,16 +33378,16 @@
         <v>1243</v>
       </c>
       <c r="B1245" s="14" t="s">
+        <v>2914</v>
+      </c>
+      <c r="C1245" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1245" s="8" t="s">
         <v>2915</v>
       </c>
-      <c r="C1245" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1245" s="8" t="s">
-        <v>2916</v>
-      </c>
       <c r="E1245" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1245" s="11"/>
     </row>
@@ -33394,16 +33396,16 @@
         <v>1244</v>
       </c>
       <c r="B1246" s="14" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C1246" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1246" s="8" t="s">
         <v>2917</v>
       </c>
-      <c r="C1246" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1246" s="8" t="s">
-        <v>2918</v>
-      </c>
       <c r="E1246" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1246" s="11"/>
     </row>
@@ -33412,16 +33414,16 @@
         <v>1245</v>
       </c>
       <c r="B1247" s="14" t="s">
+        <v>2918</v>
+      </c>
+      <c r="C1247" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1247" s="8" t="s">
         <v>2919</v>
       </c>
-      <c r="C1247" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1247" s="8" t="s">
-        <v>2920</v>
-      </c>
       <c r="E1247" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1247" s="11"/>
     </row>
@@ -33430,16 +33432,16 @@
         <v>1246</v>
       </c>
       <c r="B1248" s="14" t="s">
+        <v>2920</v>
+      </c>
+      <c r="C1248" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1248" s="8" t="s">
         <v>2921</v>
       </c>
-      <c r="C1248" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1248" s="8" t="s">
-        <v>2922</v>
-      </c>
       <c r="E1248" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1248" s="11"/>
     </row>
@@ -33448,16 +33450,16 @@
         <v>1247</v>
       </c>
       <c r="B1249" s="14" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C1249" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1249" s="8" t="s">
         <v>2923</v>
       </c>
-      <c r="C1249" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1249" s="8" t="s">
-        <v>2924</v>
-      </c>
       <c r="E1249" s="8" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="F1249" s="11"/>
     </row>
@@ -33466,13 +33468,13 @@
         <v>1248</v>
       </c>
       <c r="B1250" s="14" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C1250" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1250" s="8" t="s">
         <v>2925</v>
-      </c>
-      <c r="C1250" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1250" s="8" t="s">
-        <v>2926</v>
       </c>
       <c r="E1250" s="8" t="s">
         <v>2255</v>
@@ -33484,13 +33486,13 @@
         <v>1249</v>
       </c>
       <c r="B1251" s="14" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C1251" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1251" s="8" t="s">
         <v>2927</v>
-      </c>
-      <c r="C1251" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1251" s="8" t="s">
-        <v>2928</v>
       </c>
       <c r="E1251" s="8" t="s">
         <v>2255</v>
@@ -33499,7 +33501,7 @@
     </row>
     <row r="1252" spans="1:6" ht="54.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A1252" s="21" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="B1252" s="21"/>
       <c r="C1252" s="21"/>
